--- a/rencana kegiatan.xlsx
+++ b/rencana kegiatan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NO</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Pengumpulan Data</t>
+  </si>
+  <si>
+    <t>AGUSTUS</t>
   </si>
 </sst>
 </file>
@@ -140,16 +143,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O17"/>
+  <dimension ref="B2:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,356 +442,434 @@
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="15" width="4.83203125" customWidth="1"/>
+    <col min="16" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="19" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>4</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="1">
         <v>3</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
